--- a/格式.xlsx
+++ b/格式.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D5BD46-36AE-4FB8-81C8-6FF32E534833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094CDC58-BA91-41CB-BB2D-22E242EBE524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="870" windowWidth="23340" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="9435" windowWidth="23340" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -191,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>私聊未被接收的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本地文件路径|文件名|unknown|unknown|unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>protobuf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,6 +416,14 @@
   </si>
   <si>
     <t>[{"key_profile_introduction":"人际交往笨拙 不谙世事","key_ts":1657xxxxx,"key_type":20019}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地文件路径|文件大小|unknown|unknown|unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +764,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -812,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -824,16 +825,16 @@
         <v>30</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -862,13 +863,13 @@
         <v>34</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -893,13 +894,13 @@
         <v>34</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -912,22 +913,22 @@
         <v>-5040</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -956,16 +957,16 @@
         <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -988,13 +989,13 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1021,13 +1022,13 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1047,19 +1048,19 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1073,22 +1074,22 @@
         <v>-3008</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1098,22 +1099,22 @@
         <v>-2016</v>
       </c>
       <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
         <v>76</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1123,22 +1124,22 @@
         <v>-4008</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1158,22 +1159,22 @@
         <v>-2000</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1181,22 +1182,22 @@
         <v>-1035</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1204,22 +1205,22 @@
         <v>-2002</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="9:16" x14ac:dyDescent="0.2">
@@ -1227,22 +1228,22 @@
         <v>-2022</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="9:16" x14ac:dyDescent="0.2">
@@ -1250,20 +1251,20 @@
         <v>-5020</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="9:16" x14ac:dyDescent="0.2">
@@ -1271,22 +1272,22 @@
         <v>-5023</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="9:16" x14ac:dyDescent="0.2">
@@ -1294,22 +1295,22 @@
         <v>-8018</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="9:16" x14ac:dyDescent="0.2">
@@ -1321,22 +1322,22 @@
         <v>-1049</v>
       </c>
       <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="9:16" x14ac:dyDescent="0.2">
@@ -1344,22 +1345,22 @@
         <v>-2011</v>
       </c>
       <c r="J23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="M23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="9:16" x14ac:dyDescent="0.2">
@@ -1367,22 +1368,22 @@
         <v>-2017</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="M24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="9:16" x14ac:dyDescent="0.2">
@@ -1390,22 +1391,22 @@
         <v>-5008</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="9:16" x14ac:dyDescent="0.2">
@@ -1413,19 +1414,19 @@
         <v>-2007</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="9:16" x14ac:dyDescent="0.2">
@@ -1433,19 +1434,19 @@
         <v>-2025</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="9:16" x14ac:dyDescent="0.2">
@@ -1453,22 +1454,22 @@
         <v>-2060</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s">
         <v>37</v>
       </c>
       <c r="L29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="9:16" x14ac:dyDescent="0.2">
@@ -1476,22 +1477,22 @@
         <v>-7010</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s">
         <v>37</v>
       </c>
       <c r="L30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1506,4 +1507,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F777A8B6-1378-49F0-833E-FDF8825C6376}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/格式.xlsx
+++ b/格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094CDC58-BA91-41CB-BB2D-22E242EBE524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86B3F94-DCC0-4008-B956-20B4776487CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="9435" windowWidth="23340" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1590" windowWidth="23340" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,14 @@
   </si>
   <si>
     <t>本地文件路径|文件大小|unknown|unknown|unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经和xxx成为好友，现在可以开始聊天了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1145,44 +1153,46 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="I13">
+        <v>-1013</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>-2000</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>44</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I15">
-        <v>-1035</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
       </c>
       <c r="K15" t="s">
         <v>52</v>
@@ -1202,16 +1212,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I16">
-        <v>-2002</v>
+        <v>-1035</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>51</v>
@@ -1220,21 +1230,21 @@
         <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I17">
-        <v>-2022</v>
+        <v>-2002</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>51</v>
@@ -1248,156 +1258,156 @@
     </row>
     <row r="18" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I18">
-        <v>-5020</v>
+        <v>-2022</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="M18" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I19">
-        <v>-5023</v>
+        <v>-5020</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
         <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I20">
-        <v>-8018</v>
+        <v>-5023</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>-8018</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N21" t="s">
         <v>47</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
     <row r="22" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I22">
-        <v>-1049</v>
-      </c>
-      <c r="J22" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P22" t="s">
-        <v>85</v>
-      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I23">
-        <v>-2011</v>
+        <v>-1049</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I24">
-        <v>-2017</v>
+        <v>-2011</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I25">
-        <v>-5008</v>
+        <v>-2017</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>51</v>
@@ -1411,30 +1421,33 @@
     </row>
     <row r="26" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I26">
-        <v>-2007</v>
+        <v>-5008</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I27">
-        <v>-2025</v>
+        <v>-2007</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
         <v>67</v>
@@ -1449,32 +1462,29 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I29">
-        <v>-2060</v>
-      </c>
-      <c r="J29" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" s="2" t="s">
+    <row r="28" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>-2025</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N28" t="s">
         <v>48</v>
       </c>
-      <c r="P29" t="s">
-        <v>87</v>
+      <c r="P28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I30">
-        <v>-7010</v>
+        <v>-2060</v>
       </c>
       <c r="J30" t="s">
         <v>87</v>
@@ -1483,7 +1493,7 @@
         <v>37</v>
       </c>
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>59</v>
@@ -1492,6 +1502,29 @@
         <v>48</v>
       </c>
       <c r="P30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>-7010</v>
+      </c>
+      <c r="J31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" t="s">
         <v>87</v>
       </c>
     </row>

--- a/格式.xlsx
+++ b/格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86B3F94-DCC0-4008-B956-20B4776487CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76EE2DB-1B4E-416A-A293-60D02980D2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="1590" windowWidth="23340" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="1950" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,154 +284,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>群文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx通过……加入了本群，…… （样式文本）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件大小文件名md5 sha1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序名，内容信息，icon url ，图片url……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java序列化+？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层java序列化不知道套了一层什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群语音通话发起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群语音通话结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明文管道符分隔</t>
+  </si>
+  <si>
+    <t>明文管道符分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*发起了语音通话|unknown|unknown|unknown|unknown|unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐名片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音通话已结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎完美解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本已解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要内容已解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java序列化+json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序/推荐名片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx撤回了一条消息，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前拿到了表情文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群标识卡片获得,戳一戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见Msg.proto，目前仅获得文件名和长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解析，难解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"诺瓦","bgColor":-7883789,"ts":1646xxx,"cover":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"key_profile_introduction":"人际交往笨拙 不谙世事","key_ts":1657xxxxx,"key_type":20019}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地文件路径|文件大小|unknown|unknown|unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经和xxx成为好友，现在可以开始聊天了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明文逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人入群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>json+java序列化+明文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx通过……加入了本群，…… （样式文本）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件大小文件名md5 sha1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程序名，内容信息，icon url ，图片url……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转发消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java序列化+？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层java序列化不知道套了一层什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群语音通话发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群语音通话结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明文管道符分隔</t>
-  </si>
-  <si>
-    <t>明文管道符分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*发起了语音通话|unknown|unknown|unknown|unknown|unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐名片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音通话已结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>几乎完美解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本已解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要内容已解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java序列化+json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程序/推荐名片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无框消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx撤回了一条消息，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前拿到了表情文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群标识卡片获得,戳一戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见Msg.proto，目前仅获得文件名和长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解析，难解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text":"诺瓦","bgColor":-7883789,"ts":1646xxx,"cover":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"key_profile_introduction":"人际交往笨拙 不谙世事","key_ts":1657xxxxx,"key_type":20019}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地文件路径|文件大小|unknown|unknown|unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你已经和xxx成为好友，现在可以开始聊天了。</t>
+  </si>
+  <si>
+    <t>灰条消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protobuf/明文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx撤回了一条消息，邀请入群，拍一拍，打卡消息，修改群名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请Q群管家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -821,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -877,7 +900,7 @@
         <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -908,7 +931,7 @@
         <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -921,13 +944,13 @@
         <v>-5040</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>50</v>
@@ -936,7 +959,7 @@
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -962,10 +985,10 @@
         <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>51</v>
@@ -974,56 +997,48 @@
         <v>47</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="I7">
-        <v>-2015</v>
+        <v>-2042</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="M7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>-1034</v>
+        <v>-2015</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
@@ -1041,129 +1056,137 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
       </c>
       <c r="I9">
-        <v>-2005</v>
+        <v>-1034</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>-3008</v>
+        <v>-2005</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I11">
-        <v>-2016</v>
+        <v>-3008</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="I12">
-        <v>-4008</v>
+        <v>-2016</v>
       </c>
       <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
         <v>75</v>
       </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="I13">
-        <v>-1013</v>
+        <v>-4008</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>50</v>
@@ -1172,50 +1195,52 @@
         <v>50</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="I14">
+        <v>-1013</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>-2000</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" t="s">
         <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I16">
-        <v>-1035</v>
-      </c>
-      <c r="J16" t="s">
-        <v>54</v>
       </c>
       <c r="K16" t="s">
         <v>52</v>
@@ -1230,21 +1255,21 @@
         <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I17">
-        <v>-2002</v>
+        <v>-1035</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>51</v>
@@ -1253,21 +1278,21 @@
         <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I18">
-        <v>-2022</v>
+        <v>-2002</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>51</v>
@@ -1276,92 +1301,114 @@
         <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="9:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I19">
-        <v>-5020</v>
+        <v>-2022</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="M19" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="9:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I20">
-        <v>-5023</v>
+        <v>-5020</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
         <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I21">
-        <v>-8018</v>
+        <v>-5023</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>-8018</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" t="s">
         <v>47</v>
       </c>
-      <c r="P21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
       <c r="I23">
-        <v>-1049</v>
+        <v>-5040</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>51</v>
@@ -1370,44 +1417,25 @@
         <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I24">
-        <v>-2011</v>
-      </c>
-      <c r="J24" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I25">
-        <v>-2017</v>
+        <v>-1049</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>51</v>
@@ -1416,41 +1444,44 @@
         <v>47</v>
       </c>
       <c r="P25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I26">
-        <v>-5008</v>
+        <v>-2025</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I27">
-        <v>-2007</v>
+        <v>-2011</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>59</v>
@@ -1459,41 +1490,64 @@
         <v>48</v>
       </c>
       <c r="P27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I28">
-        <v>-2025</v>
+        <v>-2017</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="9:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>-5008</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I30">
-        <v>-2060</v>
+        <v>-2007</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>59</v>
@@ -1502,21 +1556,18 @@
         <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="9:16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I31">
-        <v>-7010</v>
+        <v>-2025</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>59</v>
@@ -1525,14 +1576,60 @@
         <v>48</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>-2060</v>
+      </c>
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>-7010</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
   </mergeCells>

--- a/格式.xlsx
+++ b/格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76EE2DB-1B4E-416A-A293-60D02980D2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994E616-4565-4FB7-92EC-8DFD1F6DF4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1950" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21465" yWindow="1935" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,14 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小程序/推荐名片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx撤回了一条消息，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大表情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +447,10 @@
   </si>
   <si>
     <t>邀请Q群管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,7 +840,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -935,60 +931,57 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>-5040</v>
+        <v>-1012</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="I6">
-        <v>-1012</v>
+        <v>-2042</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>51</v>
@@ -1003,42 +996,50 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
       <c r="I7">
-        <v>-2042</v>
+        <v>-2015</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>-2015</v>
+        <v>-1034</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
@@ -1056,137 +1057,129 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>-1034</v>
+        <v>-2005</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="M9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>-2005</v>
+        <v>-3008</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="I11">
+        <v>-2016</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>47</v>
       </c>
-      <c r="P10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>-3008</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" t="s">
-        <v>45</v>
-      </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="I12">
-        <v>-2016</v>
+        <v>-4008</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="I13">
-        <v>-4008</v>
+        <v>-1013</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>50</v>
@@ -1201,46 +1194,44 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="I14">
-        <v>-1013</v>
-      </c>
-      <c r="J14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" t="s">
-        <v>82</v>
-      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>-2000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
       <c r="I16">
-        <v>-2000</v>
+        <v>-1035</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
         <v>52</v>
@@ -1260,16 +1251,16 @@
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I17">
-        <v>-1035</v>
+        <v>-2002</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>51</v>
@@ -1278,21 +1269,21 @@
         <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I18">
-        <v>-2002</v>
+        <v>-2022</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>51</v>
@@ -1306,83 +1297,86 @@
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I19">
-        <v>-2022</v>
+        <v>-5020</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I20">
-        <v>-5020</v>
+        <v>-5023</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="M20" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N20" t="s">
         <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I21">
-        <v>-5023</v>
+        <v>-8018</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
       <c r="I22">
-        <v>-8018</v>
+        <v>-5040</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>51</v>
@@ -1395,47 +1389,44 @@
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23">
-        <v>-5040</v>
-      </c>
-      <c r="J23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>-1049</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N24" t="s">
         <v>47</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I25">
-        <v>-1049</v>
+        <v>-2017</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>51</v>
@@ -1452,7 +1443,7 @@
         <v>-2025</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s">
         <v>71</v>
@@ -1495,16 +1486,16 @@
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I28">
-        <v>-2017</v>
+        <v>-5008</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>51</v>
@@ -1518,33 +1509,30 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I29">
-        <v>-5008</v>
+        <v>-2007</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P29" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I30">
-        <v>-2007</v>
+        <v>-2025</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
         <v>66</v>
@@ -1556,32 +1544,35 @@
         <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I31">
-        <v>-2025</v>
-      </c>
-      <c r="J31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>-2060</v>
+      </c>
+      <c r="J32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N32" t="s">
         <v>48</v>
       </c>
-      <c r="P31" t="s">
-        <v>94</v>
+      <c r="P32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I33">
-        <v>-2060</v>
+        <v>-7010</v>
       </c>
       <c r="J33" t="s">
         <v>86</v>
@@ -1590,7 +1581,7 @@
         <v>37</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>59</v>
@@ -1599,39 +1590,16 @@
         <v>48</v>
       </c>
       <c r="P33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I34">
-        <v>-7010</v>
-      </c>
-      <c r="J34" t="s">
-        <v>86</v>
-      </c>
-      <c r="K34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P34" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/格式.xlsx
+++ b/格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994E616-4565-4FB7-92EC-8DFD1F6DF4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32FD93F-345E-49D3-B1EE-7EB905650070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21465" yWindow="1935" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="795" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1297,95 +1297,95 @@
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I19">
-        <v>-5020</v>
+        <v>-8018</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="M19" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
       <c r="I20">
-        <v>-5023</v>
+        <v>-5040</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I21">
-        <v>-8018</v>
+        <v>-5020</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P21" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
       <c r="I22">
-        <v>-5040</v>
+        <v>-5023</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P22" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">

--- a/格式.xlsx
+++ b/格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32FD93F-345E-49D3-B1EE-7EB905650070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1163F8F-0CEB-4CA0-B5C1-7EFFD2F06C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="795" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="870" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小程序名，内容信息，icon url ，图片url……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转发消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,14 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"text":"诺瓦","bgColor":-7883789,"ts":1646xxx,"cover":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"key_profile_introduction":"人际交往笨拙 不谙世事","key_ts":1657xxxxx,"key_type":20019}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,7 +438,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小程序分享</t>
+    <t>[{"key_profile_introduction":"呜呜呜呜","key_ts":16xxxxx,"key_type":20019}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"诺xx","bgColor":-7883789,"ts":1646xxx,"cover":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群公告，小程序名，内容信息，icon url ，图片url……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,7 +840,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -896,7 +896,7 @@
         <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
         <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>67</v>
@@ -965,7 +965,7 @@
         <v>47</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -975,13 +975,13 @@
         <v>-2042</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>51</v>
@@ -990,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1072,10 +1072,10 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>51</v>
@@ -1084,7 +1084,7 @@
         <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1123,13 +1123,13 @@
         <v>-2016</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>51</v>
@@ -1138,7 +1138,7 @@
         <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1148,13 +1148,13 @@
         <v>-4008</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>50</v>
@@ -1163,7 +1163,7 @@
         <v>50</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1173,13 +1173,13 @@
         <v>-1013</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>50</v>
@@ -1188,7 +1188,7 @@
         <v>50</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1246,7 +1246,7 @@
         <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
@@ -1260,7 +1260,7 @@
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>51</v>
@@ -1269,7 +1269,7 @@
         <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>-2022</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s">
         <v>52</v>
@@ -1292,7 +1292,7 @@
         <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
@@ -1300,13 +1300,13 @@
         <v>-8018</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>51</v>
@@ -1315,7 +1315,7 @@
         <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
@@ -1326,13 +1326,13 @@
         <v>-5040</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>51</v>
@@ -1341,7 +1341,7 @@
         <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
         <v>-5020</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
@@ -1362,7 +1362,7 @@
         <v>48</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
         <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>64</v>
@@ -1412,7 +1412,7 @@
         <v>47</v>
       </c>
       <c r="P24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="P25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
@@ -1443,13 +1443,13 @@
         <v>-2025</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>59</v>
@@ -1458,7 +1458,7 @@
         <v>48</v>
       </c>
       <c r="P26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.2">
@@ -1466,13 +1466,13 @@
         <v>-2011</v>
       </c>
       <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
         <v>70</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>59</v>
@@ -1481,7 +1481,7 @@
         <v>48</v>
       </c>
       <c r="P27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
@@ -1492,10 +1492,10 @@
         <v>107</v>
       </c>
       <c r="K28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>51</v>
@@ -1504,7 +1504,7 @@
         <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>-2007</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
         <v>66</v>
@@ -1524,7 +1524,7 @@
         <v>48</v>
       </c>
       <c r="P29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>-2025</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s">
         <v>66</v>
@@ -1544,7 +1544,7 @@
         <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
@@ -1552,13 +1552,13 @@
         <v>-2060</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s">
         <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>59</v>
@@ -1567,7 +1567,7 @@
         <v>48</v>
       </c>
       <c r="P32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="9:16" x14ac:dyDescent="0.2">
@@ -1575,13 +1575,13 @@
         <v>-7010</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s">
         <v>37</v>
       </c>
       <c r="L33" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>59</v>
@@ -1590,7 +1590,7 @@
         <v>48</v>
       </c>
       <c r="P33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/格式.xlsx
+++ b/格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1163F8F-0CEB-4CA0-B5C1-7EFFD2F06C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C94085-098F-4247-AF48-6256BCED7296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="870" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
